--- a/biology/Médecine/Frédérique_Bonnet-Brilhault/Frédérique_Bonnet-Brilhault.xlsx
+++ b/biology/Médecine/Frédérique_Bonnet-Brilhault/Frédérique_Bonnet-Brilhault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9rique_Bonnet-Brilhault</t>
+          <t>Frédérique_Bonnet-Brilhault</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frédérique Bonnet-Brilhault est une médecin française, pédopsychiatre et professeure de médecine au centre hospitalier régional universitaire de Tours.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9rique_Bonnet-Brilhault</t>
+          <t>Frédérique_Bonnet-Brilhault</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle étudie la médecine à Angers puis à Rouen, où elle obtient un DES de psychiatrie en 1998, intitulé Anticipation et schizophrénie : deux études sur la recherche d'une base génétique moléculaire[1]. En 2001, elle soutient une thèse de médecine intitulée Contribution à la recherche de facteurs de prédisposition génétique dans la schizophrénie : résultats de trois approches différentes[2] à Rouen. Elle travaille à partir de 2000 au centre de pédopsychiatrie de Tours, dont elle prend la direction en 2011, succédant à Catherine Barthélémy[3]. Elle est professeur de pédopsychiatrie et de physiologie à la Faculté de médecine de Tours[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle étudie la médecine à Angers puis à Rouen, où elle obtient un DES de psychiatrie en 1998, intitulé Anticipation et schizophrénie : deux études sur la recherche d'une base génétique moléculaire. En 2001, elle soutient une thèse de médecine intitulée Contribution à la recherche de facteurs de prédisposition génétique dans la schizophrénie : résultats de trois approches différentes à Rouen. Elle travaille à partir de 2000 au centre de pédopsychiatrie de Tours, dont elle prend la direction en 2011, succédant à Catherine Barthélémy. Elle est professeur de pédopsychiatrie et de physiologie à la Faculté de médecine de Tours.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9rique_Bonnet-Brilhault</t>
+          <t>Frédérique_Bonnet-Brilhault</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est spécialisée dans la recherche et la prise en charge de l'autisme. L'équipe de recherche « Autisme » (UMR Inserm 1253 - « Imagerie et cerveau ») qu'elle dirige, cherche à améliorer les stratégies diagnostiques et thérapeutiques, grâce à une meilleure compréhension des mécanismes physiopathologiques des symptômes observés dans l'autisme[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est spécialisée dans la recherche et la prise en charge de l'autisme. L'équipe de recherche « Autisme » (UMR Inserm 1253 - « Imagerie et cerveau ») qu'elle dirige, cherche à améliorer les stratégies diagnostiques et thérapeutiques, grâce à une meilleure compréhension des mécanismes physiopathologiques des symptômes observés dans l'autisme,.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9rique_Bonnet-Brilhault</t>
+          <t>Frédérique_Bonnet-Brilhault</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(Co-direction) L'autisme : de l'enfance à l'âge adulte, avec Catherine Barthélémy, Paris, Lavoisier, coll. « Médecine Sciences publications », 2012 (OCLC 807361411).
 (Co-auteur) « L’évaluation clinique des troubles autistiques », in Améliorer la qualité de vie des personnes atteintes d’autisme, Dunod, 2008,  (ISBN 9782100510306).
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9rique_Bonnet-Brilhault</t>
+          <t>Frédérique_Bonnet-Brilhault</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 31 décembre 2020, elle est nommée au grade de chevalier dans l'ordre national de la Légion d'honneur au titre de « pédopsychiatre, chef de service du centre universitaire de pédopsychiatrie d’un centre hospitalier universitaire, professeur des universités en physiologie ; 27 ans de services »[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 31 décembre 2020, elle est nommée au grade de chevalier dans l'ordre national de la Légion d'honneur au titre de « pédopsychiatre, chef de service du centre universitaire de pédopsychiatrie d’un centre hospitalier universitaire, professeur des universités en physiologie ; 27 ans de services ».
 </t>
         </is>
       </c>
